--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390787.325163057</v>
+        <v>2388242.139089772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>194.6513678589894</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.32987110366098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>123.9496908388069</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.28788303971709</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>65.63662542478103</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>239.0879882148234</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>254.6431547348008</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>74.75770077867777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>163.1485391341863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057031</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2269.325370570977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2015.563585209069</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1684.500697865498</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1684.500697865498</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1311.034939604418</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1311.034939604418</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.8233063694895</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>642.8233063694895</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>642.8233063694895</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2340.741205944899</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>2340.741205944899</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2612.354404641854</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2630.849469377029</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2299.786582033459</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.017926763344</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.552168502265</v>
+        <v>1731.862518113836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>1341.723186138024</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>823.6738367508469</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>458.7441094385871</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>204.0596212327002</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,10 +5294,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684177</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,10 +5768,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452603</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718124</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6452,25 +6452,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,13 +6701,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908938</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6944,19 +6944,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7132,13 +7132,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>50.31370338866014</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>459.0422035634803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-4.777483227320556e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.886891055576223e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.531667803215789e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.826952573417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>62.56111625485087</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333402</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812026.1514101049</v>
+        <v>812026.1514101048</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808067</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26424,19 +26424,19 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682712</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682705</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682751</v>
@@ -26445,19 +26445,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682724</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682742</v>
+        <v>5677.536566682765</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266968.0453427749</v>
+        <v>-266968.0453427747</v>
       </c>
       <c r="C6" t="n">
-        <v>322999.8338717696</v>
+        <v>322999.8338717702</v>
       </c>
       <c r="D6" t="n">
-        <v>167196.0277779746</v>
+        <v>167196.0277779748</v>
       </c>
       <c r="E6" t="n">
-        <v>-272492.8080038921</v>
+        <v>-272527.5459293275</v>
       </c>
       <c r="F6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="G6" t="n">
-        <v>498559.8833769145</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="H6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="I6" t="n">
-        <v>498559.8833769144</v>
+        <v>498525.1454514787</v>
       </c>
       <c r="J6" t="n">
-        <v>322136.6641843218</v>
+        <v>322101.9262588858</v>
       </c>
       <c r="K6" t="n">
-        <v>498559.8833769143</v>
+        <v>498525.1454514788</v>
       </c>
       <c r="L6" t="n">
-        <v>498559.8833769146</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="M6" t="n">
-        <v>374351.372668856</v>
+        <v>374316.6347434202</v>
       </c>
       <c r="N6" t="n">
-        <v>498559.8833769148</v>
+        <v>498525.1454514785</v>
       </c>
       <c r="O6" t="n">
-        <v>498559.8833769141</v>
+        <v>498525.1454514789</v>
       </c>
       <c r="P6" t="n">
-        <v>498559.8833769144</v>
+        <v>498525.1454514787</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.79695249866836</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5021090782763</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>245.7814098396621</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>116.9589380589107</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>185.5181607975196</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>130.6431124636457</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>31.61749992329624</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32552,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,31 +32789,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>85.65119835996833</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>640.3526443257074</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962379</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394542</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164529</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37078,7 +37078,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
